--- a/PhenotypicFeature.xlsx
+++ b/PhenotypicFeature.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="438">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where( (coding.code = %resource.code.coding.code) and (coding.system = %resource.code.coding.system)).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -190,7 +190,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -222,6 +222,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Observation.implicitRules</t>
   </si>
   <si>
@@ -344,6 +348,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>phenotypic-feature-severity</t>
   </si>
   <si>
@@ -361,10 +369,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>phenotypic-feature-modifier</t>
   </si>
   <si>
@@ -537,7 +541,7 @@
     <t>Codes providing the status of an observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1078,10 +1082,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1302,10 +1302,6 @@
   </si>
   <si>
     <t>Forbidden because phenotypic features don't have components.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -2048,7 +2044,7 @@
         <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>45</v>
@@ -2071,7 +2067,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2094,16 +2090,16 @@
         <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2153,7 +2149,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2165,7 +2161,7 @@
         <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>45</v>
@@ -2188,7 +2184,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2211,16 +2207,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2246,13 +2242,13 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>45</v>
@@ -2270,7 +2266,7 @@
         <v>45</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
@@ -2282,7 +2278,7 @@
         <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>45</v>
@@ -2305,11 +2301,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2328,16 +2324,16 @@
         <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2387,7 +2383,7 @@
         <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
@@ -2399,7 +2395,7 @@
         <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>45</v>
@@ -2411,7 +2407,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2422,11 +2418,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2445,16 +2441,16 @@
         <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2504,7 +2500,7 @@
         <v>45</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
@@ -2528,7 +2524,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2539,7 +2535,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2562,13 +2558,13 @@
         <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2607,17 +2603,17 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2629,7 +2625,7 @@
         <v>45</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>45</v>
@@ -2652,16 +2648,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s" s="2">
         <v>43</v>
@@ -2679,13 +2675,13 @@
         <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2736,7 +2732,7 @@
         <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2745,10 +2741,10 @@
         <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>45</v>
@@ -2771,16 +2767,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s" s="2">
         <v>43</v>
@@ -2798,13 +2794,13 @@
         <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2855,7 +2851,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2864,10 +2860,10 @@
         <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>45</v>
@@ -2890,16 +2886,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>43</v>
@@ -2917,13 +2913,13 @@
         <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2974,7 +2970,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2983,10 +2979,10 @@
         <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>45</v>
@@ -3009,16 +3005,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>43</v>
@@ -3036,13 +3032,13 @@
         <v>45</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3093,7 +3089,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3102,10 +3098,10 @@
         <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>45</v>
@@ -3128,11 +3124,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3151,19 +3147,19 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3212,7 +3208,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3224,7 +3220,7 @@
         <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>45</v>
@@ -3236,7 +3232,7 @@
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3247,7 +3243,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3270,17 +3266,17 @@
         <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3329,7 +3325,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3341,22 +3337,22 @@
         <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3364,11 +3360,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3387,17 +3383,17 @@
         <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3446,7 +3442,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3458,19 +3454,19 @@
         <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>45</v>
@@ -3481,11 +3477,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3504,16 +3500,16 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3563,7 +3559,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3575,19 +3571,19 @@
         <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>45</v>
@@ -3598,7 +3594,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3621,19 +3617,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3658,13 +3654,13 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3682,7 +3678,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3694,22 +3690,22 @@
         <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3717,7 +3713,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3740,19 +3736,19 @@
         <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3777,13 +3773,13 @@
         <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>45</v>
@@ -3801,7 +3797,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3813,7 +3809,7 @@
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>45</v>
@@ -3825,10 +3821,10 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3836,14 +3832,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>55</v>
@@ -3861,19 +3857,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3898,13 +3894,13 @@
         <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>45</v>
@@ -3922,7 +3918,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>55</v>
@@ -3934,30 +3930,30 @@
         <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3980,19 +3976,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4041,7 +4037,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4053,22 +4049,22 @@
         <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4076,7 +4072,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4099,19 +4095,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4160,7 +4156,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4172,7 +4168,7 @@
         <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>45</v>
@@ -4181,13 +4177,13 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4195,11 +4191,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4218,19 +4214,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4279,7 +4275,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4291,22 +4287,22 @@
         <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4314,11 +4310,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4337,19 +4333,19 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4398,7 +4394,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4410,22 +4406,22 @@
         <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4433,7 +4429,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4456,16 +4452,16 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4515,7 +4511,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4527,7 +4523,7 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>45</v>
@@ -4536,13 +4532,13 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4550,7 +4546,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4573,17 +4569,17 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4632,7 +4628,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4644,22 +4640,22 @@
         <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4667,7 +4663,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4690,19 +4686,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4751,7 +4747,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4760,33 +4756,33 @@
         <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4809,19 +4805,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4846,13 +4842,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4870,7 +4866,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4879,10 +4875,10 @@
         <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>45</v>
@@ -4891,10 +4887,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4905,11 +4901,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4928,19 +4924,19 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4965,11 +4961,11 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4987,7 +4983,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4999,37 +4995,37 @@
         <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E30" t="s" s="2">
         <v>43</v>
@@ -5047,19 +5043,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5108,7 +5104,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5120,7 +5116,7 @@
         <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>45</v>
@@ -5129,10 +5125,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5143,7 +5139,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5166,16 +5162,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5201,13 +5197,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5225,7 +5221,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5237,30 +5233,30 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5283,19 +5279,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5320,13 +5316,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5344,7 +5340,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5356,7 +5352,7 @@
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5365,10 +5361,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5379,7 +5375,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5402,16 +5398,16 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5461,7 +5457,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5473,30 +5469,30 @@
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5519,16 +5515,16 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5578,7 +5574,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5590,30 +5586,30 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5636,19 +5632,19 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5697,7 +5693,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5709,7 +5705,7 @@
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5718,10 +5714,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5732,7 +5728,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5755,7 +5751,7 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>339</v>
+        <v>57</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>340</v>
@@ -5851,7 +5847,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5870,7 +5866,7 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>345</v>
@@ -5879,7 +5875,7 @@
         <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5941,7 +5937,7 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
@@ -5987,7 +5983,7 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>350</v>
@@ -5996,10 +5992,10 @@
         <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6060,7 +6056,7 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6072,7 +6068,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6175,7 +6171,7 @@
         <v>357</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
@@ -6290,7 +6286,7 @@
         <v>357</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6336,7 +6332,7 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>365</v>
@@ -6373,7 +6369,7 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
         <v>369</v>
@@ -6409,7 +6405,7 @@
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
@@ -6421,7 +6417,7 @@
         <v>372</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6455,7 +6451,7 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>374</v>
@@ -6492,7 +6488,7 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X42" t="s" s="2">
         <v>378</v>
@@ -6528,7 +6524,7 @@
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
@@ -6540,7 +6536,7 @@
         <v>372</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6645,7 +6641,7 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6691,7 +6687,7 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>339</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>387</v>
@@ -6760,7 +6756,7 @@
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6879,7 +6875,7 @@
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6996,7 +6992,7 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -7042,7 +7038,7 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>405</v>
@@ -7115,19 +7111,19 @@
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7138,7 +7134,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7161,7 +7157,7 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>339</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>340</v>
@@ -7253,11 +7249,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7276,7 +7272,7 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>345</v>
@@ -7285,7 +7281,7 @@
         <v>346</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7347,7 +7343,7 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7370,7 +7366,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7393,7 +7389,7 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>350</v>
@@ -7402,10 +7398,10 @@
         <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7466,7 +7462,7 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7478,7 +7474,7 @@
         <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7489,7 +7485,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7512,19 +7508,19 @@
         <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7549,14 +7545,14 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7573,7 +7569,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>55</v>
@@ -7585,22 +7581,22 @@
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -7608,7 +7604,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7631,19 +7627,19 @@
         <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7692,7 +7688,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7704,30 +7700,30 @@
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7750,19 +7746,19 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7787,13 +7783,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7811,7 +7807,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7820,10 +7816,10 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7832,10 +7828,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7846,11 +7842,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7869,19 +7865,19 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7906,14 +7902,14 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7930,7 +7926,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7942,30 +7938,30 @@
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7991,16 +7987,16 @@
         <v>45</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8049,7 +8045,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8061,7 +8057,7 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8070,10 +8066,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
